--- a/config_5.18/prop_clear_server.xlsx
+++ b/config_5.18/prop_clear_server.xlsx
@@ -418,9 +418,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -476,6 +476,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -484,22 +499,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,10 +528,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,6 +568,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -569,7 +585,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,22 +593,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,31 +638,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,145 +806,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,6 +852,47 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -867,17 +908,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,52 +944,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,10 +957,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -969,133 +969,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1477,7 +1477,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1639,7 +1639,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>0</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -1659,8 +1659,8 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" s="7">
+        <v>1</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>22</v>
@@ -1679,8 +1679,8 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" s="7">
+        <v>1</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>24</v>
@@ -1700,7 +1700,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>26</v>
@@ -1720,7 +1720,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>28</v>
@@ -1739,8 +1739,8 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" s="7">
+        <v>1</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>30</v>
@@ -1759,8 +1759,8 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" s="7">
+        <v>1</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>32</v>
@@ -1779,8 +1779,8 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" s="7">
+        <v>1</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>34</v>
@@ -1800,7 +1800,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>36</v>

--- a/config_5.18/prop_clear_server.xlsx
+++ b/config_5.18/prop_clear_server.xlsx
@@ -418,10 +418,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -468,21 +468,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -492,14 +485,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,6 +518,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -570,14 +562,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,7 +570,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,12 +583,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -638,181 +638,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,27 +852,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -917,26 +906,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,6 +938,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -957,10 +957,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -969,133 +969,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1477,7 +1477,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1609,7 +1609,7 @@
         <v>1619481600</v>
       </c>
       <c r="E6" s="12">
-        <v>1621267199</v>
+        <v>1621871999</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>17</v>
